--- a/biology/Zoologie/Gomphus_(insecte)/Gomphus_(insecte).xlsx
+++ b/biology/Zoologie/Gomphus_(insecte)/Gomphus_(insecte).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gomphes
 Gomphus (les gomphes en français) est un genre d'insectes odonates anisoptères.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont de taille moyenne, avec un corps jaune à verdâtre marqué de noir.
 Ce genre se distingue des autres genres de Gomphidae par la ligne claire longitudinale marquant la partie supérieure de l'abdomen qui est plus étroite que la largeur de l'abdomen.
@@ -546,7 +560,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gomphus abbreviatus Hagen in Selys, 1878
